--- a/function_list.xlsx
+++ b/function_list.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents and Settings\Utente\Documenti\GitHub\RDBqc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315"/>
   </bookViews>
@@ -1252,6 +1257,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1299,7 +1307,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1334,7 +1342,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1545,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1668,7 +1676,7 @@
         <v>94</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>120</v>

--- a/function_list.xlsx
+++ b/function_list.xlsx
@@ -429,9 +429,6 @@
     <t>Consistency of  mean mean discard: plot of the discards weight by year, gear and fishery</t>
   </si>
   <si>
-    <t>Kolmogorov-Smirnov test on culumative landing and discard fucntion at length</t>
-  </si>
-  <si>
     <t>Landing/Discard</t>
   </si>
   <si>
@@ -694,6 +691,9 @@
   </si>
   <si>
     <t>Check_record_duplicated_J</t>
+  </si>
+  <si>
+    <t>Kolmogorov-Smirnov test on culumative landing and discard function at length</t>
   </si>
 </sst>
 </file>
@@ -1554,7 +1554,7 @@
   <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,7 +1676,7 @@
         <v>94</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K4" s="5" t="s">
         <v>120</v>
@@ -1896,16 +1896,16 @@
         <v>19</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>135</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1919,7 +1919,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>94</v>
@@ -1928,7 +1928,7 @@
         <v>119</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -1942,16 +1942,16 @@
         <v>19</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1965,16 +1965,16 @@
         <v>19</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1991,7 +1991,7 @@
         <v>25</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>94</v>
@@ -2000,7 +2000,7 @@
         <v>116</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2014,7 +2014,7 @@
         <v>19</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>94</v>
@@ -2023,7 +2023,7 @@
         <v>116</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2037,7 +2037,7 @@
         <v>19</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>94</v>
@@ -2046,7 +2046,7 @@
         <v>119</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2060,7 +2060,7 @@
         <v>29</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>94</v>
@@ -2069,7 +2069,7 @@
         <v>119</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2083,16 +2083,16 @@
         <v>29</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2106,16 +2106,16 @@
         <v>29</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2129,16 +2129,16 @@
         <v>29</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
@@ -2152,16 +2152,16 @@
         <v>29</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="I23" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J23" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" s="5" t="s">
         <v>180</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2175,7 +2175,7 @@
         <v>29</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>94</v>
@@ -2184,7 +2184,7 @@
         <v>119</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2198,16 +2198,16 @@
         <v>29</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
@@ -2221,16 +2221,16 @@
         <v>29</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J26" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="5" t="s">
         <v>187</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -2244,16 +2244,16 @@
         <v>29</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I27" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -2267,16 +2267,16 @@
         <v>29</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I28" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -2290,16 +2290,16 @@
         <v>29</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>94</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -2313,16 +2313,16 @@
         <v>29</v>
       </c>
       <c r="H30" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J30" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="I30" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="J30" s="4" t="s">
+      <c r="K30" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -2336,16 +2336,16 @@
         <v>29</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
@@ -2359,16 +2359,16 @@
         <v>29</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
@@ -2382,16 +2382,16 @@
         <v>29</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2405,16 +2405,16 @@
         <v>29</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -2428,16 +2428,16 @@
         <v>29</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2451,16 +2451,16 @@
         <v>29</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
@@ -2474,16 +2474,16 @@
         <v>29</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J37" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="K37" s="5" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2654,7 +2654,7 @@
         <v>56</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>97</v>
@@ -2663,7 +2663,7 @@
         <v>8</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2674,7 +2674,7 @@
         <v>57</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I47" s="4" t="s">
         <v>97</v>
@@ -2683,7 +2683,7 @@
         <v>8</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -2694,16 +2694,16 @@
         <v>58</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="I48" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J48" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="K48" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -2714,16 +2714,16 @@
         <v>59</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -2734,16 +2734,16 @@
         <v>60</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K50" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -2754,16 +2754,16 @@
         <v>61</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K51" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -2774,16 +2774,16 @@
         <v>62</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J52" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2794,16 +2794,16 @@
         <v>63</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2814,16 +2814,16 @@
         <v>64</v>
       </c>
       <c r="H54" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K54" s="5" t="s">
         <v>174</v>
-      </c>
-      <c r="I54" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="J54" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="K54" s="5" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
@@ -2834,16 +2834,16 @@
         <v>65</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I55" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J55" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J55" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="K55" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
@@ -2854,16 +2854,16 @@
         <v>66</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I56" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J56" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J56" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="K56" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
@@ -2874,16 +2874,16 @@
         <v>67</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J57" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
@@ -2894,16 +2894,16 @@
         <v>68</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J58" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
@@ -2914,16 +2914,16 @@
         <v>69</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J59" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -2934,16 +2934,16 @@
         <v>70</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2954,16 +2954,16 @@
         <v>71</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J61" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2974,16 +2974,16 @@
         <v>72</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -2997,16 +2997,16 @@
         <v>19</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">

--- a/function_list.xlsx
+++ b/function_list.xlsx
@@ -1553,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1566,7 @@
     <col min="8" max="8" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.140625" customWidth="1"/>
+    <col min="11" max="11" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">

--- a/function_list.xlsx
+++ b/function_list.xlsx
@@ -1553,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2646,7 +2646,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2946,7 +2946,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
